--- a/CASES/02_Wakanda/01_Data/TR_IEEE_39.xlsx
+++ b/CASES/02_Wakanda/01_Data/TR_IEEE_39.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" state="visible" r:id="rId2"/>
@@ -299,17 +299,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="129">
-  <si>
-    <t xml:space="preserve">Bienvenido al sistema SAMS</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="127">
   <si>
     <t xml:space="preserve">Modulo 
 Transformadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Av, Carrera 30 No.45-03 Edifico 614 Bogotá D.C.
-(571) 316 5000 Ext. 11000</t>
   </si>
   <si>
     <t xml:space="preserve">Load</t>
@@ -699,7 +692,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -750,12 +743,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1279,7 +1266,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1323,7 +1310,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="12" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1595,48 +1582,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>447840</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>332280</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Imagen 17" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="447840" y="1143000"/>
-          <a:ext cx="4413600" cy="2151000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1654,9 +1599,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1665,7 +1608,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -1793,9 +1736,7 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1807,7 +1748,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1820,7 +1761,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1847,7 +1788,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1862,7 +1802,7 @@
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.83"/>
@@ -1871,31 +1811,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1" s="81" t="s">
         <v>122</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="I1" s="82" t="s">
         <v>123</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" s="82" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,13 +1843,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="74" t="n">
         <v>42866</v>
@@ -1924,7 +1864,7 @@
         <v>24</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1932,13 +1872,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E3" s="74" t="n">
         <v>42782</v>
@@ -1953,7 +1893,7 @@
         <v>15</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,21 +2985,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="97" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="97" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="97" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -3080,11 +3020,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ326"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AMJ14" activeCellId="0" sqref="AMJ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.17"/>
@@ -3102,7 +3042,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="9.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="0" width="14.01"/>
@@ -3112,7 +3052,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="10.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="11.51"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1023" min="37" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="6.88"/>
@@ -3120,144 +3060,144 @@
   <sheetData>
     <row r="1" s="21" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="R1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="S1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="AA1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AB1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AC1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AD1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AE1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AF1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="19" t="s">
+      <c r="AH1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AF1" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG1" s="19" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AMJ1" s="17" t="s">
         <v>35</v>
-      </c>
-      <c r="AJ1" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="AMJ1" s="17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="23" t="n">
         <v>25</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" s="26" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G2" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J2" s="28" t="n">
         <v>345</v>
@@ -3269,10 +3209,10 @@
         <v>24.52</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O2" s="30" t="n">
         <v>1.25</v>
@@ -3290,7 +3230,7 @@
         <v>2.5</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U2" s="29" t="n">
         <v>2</v>
@@ -3299,7 +3239,7 @@
         <v>3</v>
       </c>
       <c r="W2" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X2" s="29" t="n">
         <v>0.1306</v>
@@ -3341,36 +3281,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ2" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="42" t="n">
         <v>2</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I3" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J3" s="44" t="n">
         <v>345</v>
@@ -3382,10 +3322,10 @@
         <v>35.03</v>
       </c>
       <c r="M3" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O3" s="30" t="n">
         <v>1.25</v>
@@ -3403,7 +3343,7 @@
         <v>2.5</v>
       </c>
       <c r="T3" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U3" s="45" t="n">
         <v>2</v>
@@ -3412,7 +3352,7 @@
         <v>3</v>
       </c>
       <c r="W3" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X3" s="45" t="n">
         <v>0.1306</v>
@@ -3454,36 +3394,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ3" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E4" s="42" t="n">
         <v>3</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G4" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I4" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J4" s="44" t="n">
         <v>345</v>
@@ -3495,10 +3435,10 @@
         <v>35.03</v>
       </c>
       <c r="M4" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O4" s="30" t="n">
         <v>1.25</v>
@@ -3516,7 +3456,7 @@
         <v>2.5</v>
       </c>
       <c r="T4" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U4" s="45" t="n">
         <v>2</v>
@@ -3525,7 +3465,7 @@
         <v>3</v>
       </c>
       <c r="W4" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X4" s="45" t="n">
         <v>0.175</v>
@@ -3567,36 +3507,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ4" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="42" t="n">
         <v>4</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I5" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J5" s="44" t="n">
         <v>345</v>
@@ -3608,10 +3548,10 @@
         <v>28.02</v>
       </c>
       <c r="M5" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O5" s="30" t="n">
         <v>1.25</v>
@@ -3629,7 +3569,7 @@
         <v>2.5</v>
       </c>
       <c r="T5" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U5" s="45" t="n">
         <v>2</v>
@@ -3638,7 +3578,7 @@
         <v>3</v>
       </c>
       <c r="W5" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X5" s="45" t="n">
         <v>0.16</v>
@@ -3680,36 +3620,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ5" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="42" t="n">
         <v>5</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G6" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J6" s="44" t="n">
         <v>345</v>
@@ -3721,10 +3661,10 @@
         <v>24.52</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O6" s="30" t="n">
         <v>1.25</v>
@@ -3742,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U6" s="45" t="n">
         <v>2</v>
@@ -3751,7 +3691,7 @@
         <v>3</v>
       </c>
       <c r="W6" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X6" s="45" t="n">
         <v>0.1137</v>
@@ -3793,36 +3733,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ6" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="42" t="n">
         <v>6</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G7" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J7" s="44" t="n">
         <v>345</v>
@@ -3834,10 +3774,10 @@
         <v>28.02</v>
       </c>
       <c r="M7" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O7" s="30" t="n">
         <v>1.25</v>
@@ -3855,7 +3795,7 @@
         <v>3.5</v>
       </c>
       <c r="T7" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U7" s="45" t="n">
         <v>2</v>
@@ -3864,7 +3804,7 @@
         <v>3</v>
       </c>
       <c r="W7" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X7" s="45" t="n">
         <v>0.1081</v>
@@ -3906,36 +3846,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ7" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="38" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" s="42" t="n">
         <v>7</v>
       </c>
       <c r="F8" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G8" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I8" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J8" s="44" t="n">
         <v>345</v>
@@ -3947,10 +3887,10 @@
         <v>2.51</v>
       </c>
       <c r="M8" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N8" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O8" s="30" t="n">
         <v>1.25</v>
@@ -3968,7 +3908,7 @@
         <v>3</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U8" s="45" t="n">
         <v>2</v>
@@ -3977,7 +3917,7 @@
         <v>3</v>
       </c>
       <c r="W8" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X8" s="45" t="n">
         <v>0.1144</v>
@@ -4019,36 +3959,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ8" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="42" t="n">
         <v>8</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G9" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I9" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J9" s="44" t="n">
         <v>230</v>
@@ -4060,10 +4000,10 @@
         <v>21.01</v>
       </c>
       <c r="M9" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N9" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O9" s="30" t="n">
         <v>1.25</v>
@@ -4081,7 +4021,7 @@
         <v>0.899999976</v>
       </c>
       <c r="T9" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U9" s="45" t="n">
         <v>2</v>
@@ -4090,7 +4030,7 @@
         <v>3</v>
       </c>
       <c r="W9" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X9" s="45" t="n">
         <v>0.1904</v>
@@ -4132,36 +4072,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ9" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B10" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E10" s="42" t="n">
         <v>9</v>
       </c>
       <c r="F10" s="42" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G10" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J10" s="44" t="n">
         <v>345</v>
@@ -4173,10 +4113,10 @@
         <v>1.25</v>
       </c>
       <c r="M10" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N10" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O10" s="30" t="n">
         <v>1.25</v>
@@ -4194,7 +4134,7 @@
         <v>0.600000024</v>
       </c>
       <c r="T10" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U10" s="45" t="n">
         <v>2</v>
@@ -4203,7 +4143,7 @@
         <v>3</v>
       </c>
       <c r="W10" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X10" s="45" t="n">
         <v>0.1625</v>
@@ -4245,36 +4185,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ10" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" s="42" t="n">
         <v>10</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H11" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J11" s="44" t="n">
         <v>345</v>
@@ -4286,10 +4226,10 @@
         <v>28.02</v>
       </c>
       <c r="M11" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N11" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O11" s="30" t="n">
         <v>1.25</v>
@@ -4307,7 +4247,7 @@
         <v>3.5</v>
       </c>
       <c r="T11" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U11" s="45" t="n">
         <v>2</v>
@@ -4316,7 +4256,7 @@
         <v>3</v>
       </c>
       <c r="W11" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X11" s="45" t="n">
         <v>0.181</v>
@@ -4358,36 +4298,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ11" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" s="42" t="n">
         <v>11</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G12" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I12" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J12" s="44" t="n">
         <v>345</v>
@@ -4399,10 +4339,10 @@
         <v>1.25</v>
       </c>
       <c r="M12" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N12" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O12" s="30" t="n">
         <v>1.25</v>
@@ -4420,7 +4360,7 @@
         <v>0.600000024</v>
       </c>
       <c r="T12" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U12" s="45" t="n">
         <v>2</v>
@@ -4429,7 +4369,7 @@
         <v>3</v>
       </c>
       <c r="W12" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X12" s="45" t="n">
         <v>0.1562</v>
@@ -4471,36 +4411,36 @@
         <v>14.85</v>
       </c>
       <c r="AMJ12" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B13" s="39" t="n">
         <v>25</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E13" s="42" t="n">
         <v>12</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G13" s="26" t="n">
         <v>1993</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J13" s="44" t="n">
         <v>345</v>
@@ -4512,10 +4452,10 @@
         <v>24.52</v>
       </c>
       <c r="M13" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N13" s="29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O13" s="30" t="n">
         <v>1.25</v>
@@ -4533,7 +4473,7 @@
         <v>3.5</v>
       </c>
       <c r="T13" s="29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U13" s="45" t="n">
         <v>2</v>
@@ -4542,7 +4482,7 @@
         <v>3</v>
       </c>
       <c r="W13" s="29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="X13" s="45" t="n">
         <v>0.1382</v>
@@ -4584,7 +4524,7 @@
         <v>14.85</v>
       </c>
       <c r="AMJ13" s="48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16816,7 +16756,7 @@
       <selection pane="topLeft" activeCell="O33" activeCellId="0" sqref="O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
@@ -16829,49 +16769,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="F1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="56" t="s">
+      <c r="G1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="H1" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="57" t="s">
         <v>92</v>
-      </c>
-      <c r="N1" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="O1" s="57" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16879,13 +16819,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="59" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="26" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2" s="61" t="n">
         <v>42081</v>
@@ -16927,13 +16867,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="42" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="67" t="n">
         <v>42111</v>
@@ -16975,13 +16915,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="42" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E4" s="67" t="n">
         <v>42116</v>
@@ -17023,13 +16963,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="42" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5" s="67" t="n">
         <v>42347</v>
@@ -17071,13 +17011,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="42" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" s="67" t="n">
         <v>42537</v>
@@ -17119,13 +17059,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="42" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E7" s="67" t="n">
         <v>42859</v>
@@ -17167,13 +17107,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="42" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" s="67" t="n">
         <v>43157</v>
@@ -17215,13 +17155,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E9" s="67" t="n">
         <v>39104</v>
@@ -17263,13 +17203,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" s="67" t="n">
         <v>39119</v>
@@ -17311,13 +17251,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" s="67" t="n">
         <v>39181</v>
@@ -17359,13 +17299,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E12" s="67" t="n">
         <v>39196</v>
@@ -17407,13 +17347,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E13" s="67" t="n">
         <v>39218</v>
@@ -17455,13 +17395,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E14" s="67" t="n">
         <v>39255</v>
@@ -17503,13 +17443,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E15" s="67" t="n">
         <v>39269</v>
@@ -17551,13 +17491,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E16" s="67" t="n">
         <v>39336</v>
@@ -17599,13 +17539,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="67" t="n">
         <v>39429</v>
@@ -17647,13 +17587,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D18" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E18" s="67" t="n">
         <v>39562</v>
@@ -17695,13 +17635,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E19" s="67" t="n">
         <v>39590</v>
@@ -17743,13 +17683,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E20" s="67" t="n">
         <v>39615</v>
@@ -17791,13 +17731,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" s="67" t="n">
         <v>39680</v>
@@ -17839,13 +17779,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D22" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" s="67" t="n">
         <v>39791</v>
@@ -17887,13 +17827,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D23" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E23" s="67" t="n">
         <v>39892</v>
@@ -17935,13 +17875,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D24" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E24" s="67" t="n">
         <v>40294</v>
@@ -17983,13 +17923,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D25" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E25" s="67" t="n">
         <v>40490</v>
@@ -18031,13 +17971,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D26" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E26" s="67" t="n">
         <v>40878</v>
@@ -18079,13 +18019,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D27" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E27" s="67" t="n">
         <v>41410</v>
@@ -18127,13 +18067,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D28" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E28" s="67" t="n">
         <v>41729</v>
@@ -18175,13 +18115,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C29" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D29" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E29" s="67" t="n">
         <v>42158</v>
@@ -18223,13 +18163,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D30" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E30" s="67" t="n">
         <v>42557</v>
@@ -18271,13 +18211,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C31" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D31" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E31" s="67" t="n">
         <v>42865</v>
@@ -18319,13 +18259,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="42" t="n">
         <v>2</v>
       </c>
       <c r="D32" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E32" s="67" t="n">
         <v>43336</v>
@@ -18367,13 +18307,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C33" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D33" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E33" s="67" t="n">
         <v>39058</v>
@@ -18415,13 +18355,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C34" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D34" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E34" s="67" t="n">
         <v>39832</v>
@@ -18463,13 +18403,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C35" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D35" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E35" s="67" t="n">
         <v>40221</v>
@@ -18511,13 +18451,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C36" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D36" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E36" s="67" t="n">
         <v>40708</v>
@@ -18559,13 +18499,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D37" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E37" s="67" t="n">
         <v>41134</v>
@@ -18607,13 +18547,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C38" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D38" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E38" s="67" t="n">
         <v>41501</v>
@@ -18655,13 +18595,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C39" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D39" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E39" s="67" t="n">
         <v>41828</v>
@@ -18703,13 +18643,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D40" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E40" s="67" t="n">
         <v>42052</v>
@@ -18751,13 +18691,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C41" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D41" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E41" s="67" t="n">
         <v>42818</v>
@@ -18799,13 +18739,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C42" s="42" t="n">
         <v>3</v>
       </c>
       <c r="D42" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E42" s="67" t="n">
         <v>43339</v>
@@ -18847,13 +18787,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C43" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D43" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E43" s="67" t="n">
         <v>39582</v>
@@ -18895,13 +18835,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C44" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D44" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E44" s="67" t="n">
         <v>39615</v>
@@ -18943,13 +18883,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C45" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E45" s="67" t="n">
         <v>39773</v>
@@ -18991,13 +18931,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C46" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D46" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E46" s="67" t="n">
         <v>39826</v>
@@ -19039,13 +18979,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D47" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E47" s="67" t="n">
         <v>39967</v>
@@ -19087,13 +19027,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C48" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D48" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E48" s="67" t="n">
         <v>40318</v>
@@ -19135,13 +19075,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C49" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D49" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E49" s="67" t="n">
         <v>41135</v>
@@ -19183,13 +19123,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C50" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D50" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E50" s="67" t="n">
         <v>41900</v>
@@ -19231,13 +19171,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D51" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E51" s="67" t="n">
         <v>42807</v>
@@ -19279,13 +19219,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C52" s="42" t="n">
         <v>4</v>
       </c>
       <c r="D52" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E52" s="67" t="n">
         <v>43144</v>
@@ -19327,13 +19267,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C53" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D53" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E53" s="67" t="n">
         <v>39548</v>
@@ -19375,13 +19315,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D54" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E54" s="67" t="n">
         <v>39826</v>
@@ -19423,13 +19363,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D55" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E55" s="67" t="n">
         <v>40519</v>
@@ -19471,13 +19411,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C56" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D56" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E56" s="67" t="n">
         <v>40989</v>
@@ -19519,13 +19459,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C57" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D57" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E57" s="67" t="n">
         <v>41355</v>
@@ -19567,13 +19507,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C58" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D58" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E58" s="67" t="n">
         <v>41697</v>
@@ -19615,13 +19555,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D59" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E59" s="67" t="n">
         <v>42157</v>
@@ -19663,13 +19603,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D60" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E60" s="67" t="n">
         <v>42667</v>
@@ -19711,13 +19651,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C61" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D61" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E61" s="67" t="n">
         <v>42964</v>
@@ -19759,13 +19699,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C62" s="42" t="n">
         <v>5</v>
       </c>
       <c r="D62" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E62" s="67" t="n">
         <v>43138</v>
@@ -19807,13 +19747,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" s="42" t="n">
         <v>6</v>
       </c>
       <c r="D63" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E63" s="67" t="n">
         <v>42559</v>
@@ -19855,13 +19795,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C64" s="42" t="n">
         <v>6</v>
       </c>
       <c r="D64" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E64" s="67" t="n">
         <v>42780</v>
@@ -19903,13 +19843,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C65" s="42" t="n">
         <v>6</v>
       </c>
       <c r="D65" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E65" s="67" t="n">
         <v>43340</v>
@@ -19951,13 +19891,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" s="42" t="n">
         <v>7</v>
       </c>
       <c r="D66" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E66" s="67" t="n">
         <v>40990</v>
@@ -19999,13 +19939,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C67" s="42" t="n">
         <v>7</v>
       </c>
       <c r="D67" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E67" s="67" t="n">
         <v>41355</v>
@@ -20047,13 +19987,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C68" s="42" t="n">
         <v>7</v>
       </c>
       <c r="D68" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E68" s="67" t="n">
         <v>41691</v>
@@ -20095,13 +20035,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C69" s="42" t="n">
         <v>7</v>
       </c>
       <c r="D69" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E69" s="67" t="n">
         <v>42157</v>
@@ -20143,13 +20083,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C70" s="42" t="n">
         <v>7</v>
       </c>
       <c r="D70" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E70" s="67" t="n">
         <v>42802</v>
@@ -20191,13 +20131,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C71" s="42" t="n">
         <v>7</v>
       </c>
       <c r="D71" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E71" s="67" t="n">
         <v>43343</v>
@@ -20239,13 +20179,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C72" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D72" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E72" s="67" t="n">
         <v>39118</v>
@@ -20287,13 +20227,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C73" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D73" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E73" s="67" t="n">
         <v>39423</v>
@@ -20335,13 +20275,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C74" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D74" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E74" s="67" t="n">
         <v>39784</v>
@@ -20383,13 +20323,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C75" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D75" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E75" s="67" t="n">
         <v>39983</v>
@@ -20431,13 +20371,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C76" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D76" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E76" s="67" t="n">
         <v>40519</v>
@@ -20479,13 +20419,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C77" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D77" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E77" s="67" t="n">
         <v>40892</v>
@@ -20527,13 +20467,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C78" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D78" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E78" s="67" t="n">
         <v>41369</v>
@@ -20575,13 +20515,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C79" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D79" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E79" s="67" t="n">
         <v>41683</v>
@@ -20623,13 +20563,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C80" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D80" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E80" s="67" t="n">
         <v>42478</v>
@@ -20671,13 +20611,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C81" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D81" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E81" s="67" t="n">
         <v>42738</v>
@@ -20719,13 +20659,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C82" s="42" t="n">
         <v>8</v>
       </c>
       <c r="D82" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E82" s="67" t="n">
         <v>43143</v>
@@ -20767,13 +20707,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C83" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D83" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E83" s="67" t="n">
         <v>39773</v>
@@ -20815,13 +20755,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C84" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D84" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E84" s="67" t="n">
         <v>39874</v>
@@ -20863,13 +20803,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C85" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D85" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E85" s="67" t="n">
         <v>40130</v>
@@ -20911,13 +20851,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C86" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D86" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E86" s="67" t="n">
         <v>40280</v>
@@ -20959,13 +20899,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C87" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D87" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E87" s="67" t="n">
         <v>40851</v>
@@ -21007,13 +20947,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C88" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D88" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E88" s="67" t="n">
         <v>40941</v>
@@ -21055,13 +20995,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C89" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D89" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E89" s="67" t="n">
         <v>41409</v>
@@ -21103,13 +21043,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C90" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D90" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E90" s="67" t="n">
         <v>41725</v>
@@ -21151,13 +21091,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C91" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D91" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E91" s="67" t="n">
         <v>42537</v>
@@ -21199,13 +21139,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C92" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D92" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E92" s="67" t="n">
         <v>42836</v>
@@ -21247,13 +21187,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C93" s="42" t="n">
         <v>9</v>
       </c>
       <c r="D93" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E93" s="67" t="n">
         <v>43264</v>
@@ -21295,13 +21235,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C94" s="42" t="n">
         <v>10</v>
       </c>
       <c r="D94" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E94" s="67" t="n">
         <v>39154</v>
@@ -21343,13 +21283,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C95" s="42" t="n">
         <v>10</v>
       </c>
       <c r="D95" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E95" s="67" t="n">
         <v>39828</v>
@@ -21391,13 +21331,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C96" s="42" t="n">
         <v>10</v>
       </c>
       <c r="D96" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E96" s="67" t="n">
         <v>40800</v>
@@ -21439,13 +21379,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C97" s="42" t="n">
         <v>10</v>
       </c>
       <c r="D97" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E97" s="67" t="n">
         <v>41502</v>
@@ -21487,13 +21427,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C98" s="42" t="n">
         <v>10</v>
       </c>
       <c r="D98" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E98" s="67" t="n">
         <v>41829</v>
@@ -21535,13 +21475,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C99" s="42" t="n">
         <v>10</v>
       </c>
       <c r="D99" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E99" s="67" t="n">
         <v>42559</v>
@@ -21583,13 +21523,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C100" s="42" t="n">
         <v>10</v>
       </c>
       <c r="D100" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E100" s="67" t="n">
         <v>42849</v>
@@ -21631,13 +21571,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C101" s="42" t="n">
         <v>10</v>
       </c>
       <c r="D101" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E101" s="67" t="n">
         <v>43382</v>
@@ -21679,13 +21619,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C102" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D102" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E102" s="67" t="n">
         <v>39269</v>
@@ -21727,13 +21667,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C103" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D103" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E103" s="67" t="n">
         <v>39406</v>
@@ -21775,13 +21715,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C104" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D104" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E104" s="67" t="n">
         <v>39533</v>
@@ -21823,13 +21763,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C105" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D105" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E105" s="67" t="n">
         <v>39800</v>
@@ -21871,13 +21811,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C106" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D106" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E106" s="67" t="n">
         <v>39829</v>
@@ -21919,13 +21859,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C107" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D107" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E107" s="67" t="n">
         <v>40224</v>
@@ -21967,13 +21907,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C108" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D108" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E108" s="67" t="n">
         <v>41172</v>
@@ -22015,13 +21955,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C109" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D109" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E109" s="67" t="n">
         <v>41751</v>
@@ -22063,13 +22003,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C110" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D110" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E110" s="67" t="n">
         <v>42158</v>
@@ -22111,13 +22051,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C111" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D111" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E111" s="67" t="n">
         <v>42480</v>
@@ -22159,13 +22099,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C112" s="42" t="n">
         <v>11</v>
       </c>
       <c r="D112" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E112" s="67" t="n">
         <v>42781</v>
@@ -22207,13 +22147,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C113" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D113" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E113" s="67" t="n">
         <v>39183</v>
@@ -22255,13 +22195,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C114" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D114" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E114" s="67" t="n">
         <v>39874</v>
@@ -22303,13 +22243,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C115" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D115" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E115" s="67" t="n">
         <v>40490</v>
@@ -22351,13 +22291,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C116" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D116" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E116" s="67" t="n">
         <v>40824</v>
@@ -22399,13 +22339,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C117" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D117" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E117" s="67" t="n">
         <v>40879</v>
@@ -22447,13 +22387,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C118" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D118" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E118" s="67" t="n">
         <v>41355</v>
@@ -22495,13 +22435,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C119" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D119" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E119" s="67" t="n">
         <v>41677</v>
@@ -22543,13 +22483,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C120" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D120" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E120" s="67" t="n">
         <v>42739</v>
@@ -22591,13 +22531,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C121" s="42" t="n">
         <v>12</v>
       </c>
       <c r="D121" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E121" s="67" t="n">
         <v>43405</v>
@@ -25708,7 +25648,7 @@
       <selection pane="topLeft" activeCell="F122" activeCellId="0" sqref="F122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.99"/>
@@ -25719,37 +25659,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="J1" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="K1" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25757,13 +25697,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2" s="74" t="n">
         <v>42082</v>
@@ -25792,13 +25732,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="74" t="n">
         <v>42121</v>
@@ -25827,13 +25767,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E4" s="74" t="n">
         <v>42121</v>
@@ -25862,13 +25802,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5" s="74" t="n">
         <v>42347</v>
@@ -25897,13 +25837,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" s="76" t="n">
         <v>42542</v>
@@ -25932,13 +25872,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E7" s="74" t="n">
         <v>42863</v>
@@ -25967,13 +25907,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" s="74" t="n">
         <v>43160</v>
@@ -26002,13 +25942,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E9" s="74" t="n">
         <v>43542</v>
@@ -26037,13 +25977,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" s="74" t="n">
         <v>39105</v>
@@ -26072,13 +26012,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D11" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" s="76" t="n">
         <v>39589</v>
@@ -26107,13 +26047,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D12" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E12" s="74" t="n">
         <v>39686</v>
@@ -26142,13 +26082,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D13" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E13" s="74" t="n">
         <v>39933</v>
@@ -26177,13 +26117,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E14" s="74" t="n">
         <v>40295</v>
@@ -26212,13 +26152,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E15" s="74" t="n">
         <v>40891</v>
@@ -26247,13 +26187,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D16" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E16" s="76" t="n">
         <v>41424</v>
@@ -26282,13 +26222,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="74" t="n">
         <v>41750</v>
@@ -26317,13 +26257,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C18" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D18" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E18" s="74" t="n">
         <v>42166</v>
@@ -26352,13 +26292,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E19" s="74" t="n">
         <v>42557</v>
@@ -26387,13 +26327,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D20" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E20" s="74" t="n">
         <v>42866</v>
@@ -26422,13 +26362,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" s="74" t="n">
         <v>39062</v>
@@ -26455,13 +26395,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D22" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" s="74" t="n">
         <v>39846</v>
@@ -26490,13 +26430,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D23" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E23" s="76" t="n">
         <v>40232</v>
@@ -26525,13 +26465,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D24" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E24" s="74" t="n">
         <v>40731</v>
@@ -26560,13 +26500,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D25" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E25" s="74" t="n">
         <v>41143</v>
@@ -26595,13 +26535,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D26" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E26" s="74" t="n">
         <v>41487</v>
@@ -26630,13 +26570,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C27" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D27" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E27" s="74" t="n">
         <v>41835</v>
@@ -26665,13 +26605,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D28" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E28" s="76" t="n">
         <v>42060</v>
@@ -26700,13 +26640,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C29" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E29" s="74" t="n">
         <v>42829</v>
@@ -26735,13 +26675,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C30" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D30" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E30" s="74" t="n">
         <v>43152</v>
@@ -26770,13 +26710,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D31" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E31" s="74" t="n">
         <v>43516</v>
@@ -26805,13 +26745,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D32" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E32" s="74" t="n">
         <v>39576</v>
@@ -26840,13 +26780,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D33" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E33" s="76" t="n">
         <v>39777</v>
@@ -26875,13 +26815,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D34" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E34" s="74" t="n">
         <v>39834</v>
@@ -26910,13 +26850,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E35" s="74" t="n">
         <v>40319</v>
@@ -26945,13 +26885,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C36" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D36" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E36" s="74" t="n">
         <v>41149</v>
@@ -26980,13 +26920,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C37" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D37" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E37" s="74" t="n">
         <v>41897</v>
@@ -27015,13 +26955,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C38" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D38" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E38" s="76" t="n">
         <v>42823</v>
@@ -27050,13 +26990,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D39" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E39" s="74" t="n">
         <v>43159</v>
@@ -27085,13 +27025,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D40" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E40" s="74" t="n">
         <v>43524</v>
@@ -27120,13 +27060,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C41" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D41" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E41" s="74" t="n">
         <v>38923</v>
@@ -27155,13 +27095,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C42" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D42" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E42" s="76" t="n">
         <v>39552</v>
@@ -27190,13 +27130,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C43" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D43" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E43" s="74" t="n">
         <v>39834</v>
@@ -27225,13 +27165,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C44" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D44" s="78" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E44" s="74" t="n">
         <v>40513</v>
@@ -27260,13 +27200,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C45" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E45" s="74" t="n">
         <v>40994</v>
@@ -27295,13 +27235,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C46" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D46" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E46" s="74" t="n">
         <v>41379</v>
@@ -27330,13 +27270,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C47" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D47" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E47" s="74" t="n">
         <v>41698</v>
@@ -27365,13 +27305,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C48" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D48" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E48" s="79" t="n">
         <v>42160</v>
@@ -27400,13 +27340,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D49" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E49" s="74" t="n">
         <v>42739</v>
@@ -27435,13 +27375,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="80" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C50" s="80" t="n">
         <v>5</v>
       </c>
       <c r="D50" s="80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E50" s="74" t="n">
         <v>42965</v>
@@ -27470,13 +27410,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C51" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D51" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E51" s="74" t="n">
         <v>43152</v>
@@ -27505,13 +27445,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="80" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C52" s="80" t="n">
         <v>5</v>
       </c>
       <c r="D52" s="80" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E52" s="74" t="n">
         <v>43516</v>
@@ -27540,13 +27480,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C53" s="66" t="n">
         <v>6</v>
       </c>
       <c r="D53" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E53" s="74" t="n">
         <v>42572</v>
@@ -27575,13 +27515,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C54" s="66" t="n">
         <v>6</v>
       </c>
       <c r="D54" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E54" s="74" t="n">
         <v>42787</v>
@@ -27610,13 +27550,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C55" s="66" t="n">
         <v>6</v>
       </c>
       <c r="D55" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E55" s="74" t="n">
         <v>43152</v>
@@ -27645,13 +27585,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C56" s="66" t="n">
         <v>6</v>
       </c>
       <c r="D56" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E56" s="74" t="n">
         <v>43524</v>
@@ -27680,13 +27620,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D57" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E57" s="74" t="n">
         <v>40994</v>
@@ -27715,13 +27655,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D58" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E58" s="74" t="n">
         <v>41380</v>
@@ -27750,13 +27690,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D59" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E59" s="74" t="n">
         <v>41694</v>
@@ -27785,13 +27725,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C60" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D60" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E60" s="74" t="n">
         <v>42159</v>
@@ -27820,13 +27760,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C61" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D61" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E61" s="74" t="n">
         <v>42817</v>
@@ -27855,13 +27795,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C62" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D62" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E62" s="74" t="n">
         <v>43551</v>
@@ -27890,13 +27830,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C63" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D63" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E63" s="74" t="n">
         <v>39120</v>
@@ -27925,13 +27865,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C64" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D64" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E64" s="74" t="n">
         <v>39990</v>
@@ -27960,13 +27900,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C65" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D65" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E65" s="74" t="n">
         <v>40513</v>
@@ -27995,13 +27935,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C66" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D66" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E66" s="74" t="n">
         <v>40920</v>
@@ -28030,13 +27970,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C67" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D67" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E67" s="74" t="n">
         <v>41393</v>
@@ -28065,13 +28005,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C68" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D68" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E68" s="74" t="n">
         <v>41684</v>
@@ -28100,13 +28040,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C69" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D69" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E69" s="74" t="n">
         <v>42510</v>
@@ -28135,13 +28075,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C70" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D70" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E70" s="74" t="n">
         <v>42769</v>
@@ -28170,13 +28110,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C71" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D71" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E71" s="74" t="n">
         <v>43158</v>
@@ -28205,13 +28145,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C72" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D72" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E72" s="74" t="n">
         <v>39776</v>
@@ -28240,13 +28180,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C73" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D73" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E73" s="74" t="n">
         <v>39868</v>
@@ -28275,13 +28215,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C74" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D74" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E74" s="74" t="n">
         <v>40281</v>
@@ -28310,13 +28250,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C75" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D75" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E75" s="74" t="n">
         <v>40863</v>
@@ -28345,13 +28285,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C76" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D76" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E76" s="74" t="n">
         <v>41424</v>
@@ -28380,13 +28320,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C77" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D77" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E77" s="74" t="n">
         <v>41737</v>
@@ -28415,13 +28355,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C78" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D78" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E78" s="74" t="n">
         <v>42542</v>
@@ -28450,13 +28390,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C79" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D79" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E79" s="74" t="n">
         <v>42843</v>
@@ -28485,13 +28425,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C80" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D80" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E80" s="74" t="n">
         <v>43235</v>
@@ -28520,13 +28460,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C81" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D81" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E81" s="74" t="n">
         <v>43558</v>
@@ -28555,13 +28495,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C82" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D82" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E82" s="74" t="n">
         <v>39167</v>
@@ -28590,13 +28530,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C83" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D83" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E83" s="74" t="n">
         <v>39835</v>
@@ -28625,13 +28565,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C84" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D84" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E84" s="74" t="n">
         <v>40807</v>
@@ -28660,13 +28600,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C85" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D85" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E85" s="74" t="n">
         <v>41488</v>
@@ -28695,13 +28635,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C86" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D86" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E86" s="74" t="n">
         <v>41835</v>
@@ -28730,13 +28670,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C87" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D87" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E87" s="74" t="n">
         <v>42572</v>
@@ -28765,13 +28705,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C88" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D88" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E88" s="74" t="n">
         <v>42852</v>
@@ -28800,13 +28740,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C89" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D89" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E89" s="74" t="n">
         <v>43563</v>
@@ -28835,13 +28775,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C90" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D90" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E90" s="74" t="n">
         <v>39272</v>
@@ -28870,13 +28810,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C91" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D91" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E91" s="74" t="n">
         <v>39805</v>
@@ -28905,13 +28845,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C92" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D92" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E92" s="74" t="n">
         <v>39842</v>
@@ -28940,13 +28880,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C93" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D93" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E93" s="74" t="n">
         <v>40232</v>
@@ -28975,13 +28915,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C94" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D94" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E94" s="74" t="n">
         <v>41176</v>
@@ -29010,13 +28950,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C95" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D95" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E95" s="74" t="n">
         <v>41778</v>
@@ -29045,13 +28985,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C96" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D96" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E96" s="74" t="n">
         <v>42166</v>
@@ -29080,13 +29020,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C97" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D97" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E97" s="74" t="n">
         <v>42538</v>
@@ -29115,13 +29055,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C98" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D98" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E98" s="74" t="n">
         <v>42788</v>
@@ -29150,13 +29090,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C99" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D99" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E99" s="74" t="n">
         <v>43417</v>
@@ -29183,13 +29123,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C100" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D100" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E100" s="74" t="n">
         <v>39169</v>
@@ -29218,13 +29158,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C101" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D101" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E101" s="74" t="n">
         <v>39868</v>
@@ -29253,13 +29193,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C102" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D102" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E102" s="74" t="n">
         <v>40494</v>
@@ -29288,13 +29228,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C103" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D103" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E103" s="74" t="n">
         <v>40834</v>
@@ -29323,13 +29263,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C104" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D104" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E104" s="74" t="n">
         <v>40919</v>
@@ -29358,13 +29298,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C105" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D105" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E105" s="74" t="n">
         <v>41376</v>
@@ -29393,13 +29333,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C106" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D106" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E106" s="74" t="n">
         <v>41676</v>
@@ -29428,13 +29368,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C107" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D107" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E107" s="74" t="n">
         <v>42783</v>
@@ -32559,7 +32499,7 @@
       <selection pane="topLeft" activeCell="E65" activeCellId="0" sqref="E65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.51"/>
@@ -32572,34 +32512,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="81" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="I1" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="J1" s="82" t="s">
         <v>104</v>
-      </c>
-      <c r="I1" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="82" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32607,13 +32547,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2" s="74" t="n">
         <v>42116</v>
@@ -32637,13 +32577,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E3" s="74" t="n">
         <v>42172</v>
@@ -32667,13 +32607,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E4" s="74" t="n">
         <v>42172</v>
@@ -32697,13 +32637,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5" s="74" t="n">
         <v>42350</v>
@@ -32727,13 +32667,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="75" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" s="76" t="n">
         <v>42929</v>
@@ -32757,13 +32697,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E7" s="74" t="n">
         <v>43272</v>
@@ -32789,13 +32729,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="66" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E8" s="74" t="n">
         <v>43542</v>
@@ -32821,13 +32761,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E9" s="74" t="n">
         <v>40956</v>
@@ -32853,13 +32793,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E10" s="74" t="n">
         <v>41523</v>
@@ -32885,13 +32825,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C11" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E11" s="74" t="n">
         <v>41785</v>
@@ -32915,13 +32855,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E12" s="74" t="n">
         <v>42173</v>
@@ -32945,13 +32885,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E13" s="74" t="n">
         <v>42933</v>
@@ -32975,13 +32915,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E14" s="74" t="n">
         <v>43476</v>
@@ -33007,13 +32947,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E15" s="74" t="n">
         <v>40781</v>
@@ -33039,13 +32979,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D16" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E16" s="74" t="n">
         <v>41542</v>
@@ -33071,13 +33011,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E17" s="74" t="n">
         <v>41838</v>
@@ -33101,13 +33041,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D18" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E18" s="74" t="n">
         <v>42116</v>
@@ -33131,13 +33071,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D19" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E19" s="74" t="n">
         <v>42913</v>
@@ -33161,13 +33101,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C20" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D20" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E20" s="74" t="n">
         <v>43476</v>
@@ -33193,13 +33133,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="66" t="n">
         <v>3</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E21" s="74" t="n">
         <v>43516</v>
@@ -33225,13 +33165,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D22" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" s="74" t="n">
         <v>41171</v>
@@ -33257,13 +33197,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C23" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D23" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E23" s="74" t="n">
         <v>41915</v>
@@ -33287,13 +33227,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C24" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D24" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E24" s="74" t="n">
         <v>42908</v>
@@ -33317,13 +33257,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D25" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E25" s="74" t="n">
         <v>43271</v>
@@ -33349,13 +33289,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D26" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E26" s="74" t="n">
         <v>43524</v>
@@ -33381,13 +33321,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D27" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E27" s="74" t="n">
         <v>41115</v>
@@ -33413,13 +33353,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E28" s="74" t="n">
         <v>41404</v>
@@ -33445,13 +33385,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D29" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E29" s="74" t="n">
         <v>41752</v>
@@ -33475,13 +33415,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D30" s="78" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E30" s="74" t="n">
         <v>42172</v>
@@ -33505,13 +33445,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D31" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E31" s="74" t="n">
         <v>42794</v>
@@ -33535,13 +33475,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D32" s="78" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E32" s="74" t="n">
         <v>42986</v>
@@ -33565,13 +33505,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C33" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D33" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E33" s="74" t="n">
         <v>43256</v>
@@ -33597,13 +33537,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="66" t="n">
         <v>5</v>
       </c>
       <c r="D34" s="78" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E34" s="74" t="n">
         <v>43516</v>
@@ -33629,13 +33569,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" s="66" t="n">
         <v>6</v>
       </c>
       <c r="D35" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E35" s="74" t="n">
         <v>42797</v>
@@ -33659,13 +33599,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C36" s="66" t="n">
         <v>6</v>
       </c>
       <c r="D36" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E36" s="74" t="n">
         <v>43476</v>
@@ -33691,13 +33631,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C37" s="66" t="n">
         <v>6</v>
       </c>
       <c r="D37" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E37" s="74" t="n">
         <v>43524</v>
@@ -33723,13 +33663,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C38" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D38" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E38" s="74" t="n">
         <v>41115</v>
@@ -33755,13 +33695,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C39" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D39" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E39" s="74" t="n">
         <v>41417</v>
@@ -33787,13 +33727,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C40" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D40" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E40" s="74" t="n">
         <v>41752</v>
@@ -33817,13 +33757,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C41" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D41" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E41" s="74" t="n">
         <v>42172</v>
@@ -33847,13 +33787,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C42" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D42" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E42" s="74" t="n">
         <v>42790</v>
@@ -33877,13 +33817,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D43" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E43" s="74" t="n">
         <v>42907</v>
@@ -33907,13 +33847,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C44" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D44" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E44" s="74" t="n">
         <v>43477</v>
@@ -33939,13 +33879,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C45" s="66" t="n">
         <v>7</v>
       </c>
       <c r="D45" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E45" s="74" t="n">
         <v>43551</v>
@@ -33971,13 +33911,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C46" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D46" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E46" s="74" t="n">
         <v>40956</v>
@@ -34003,13 +33943,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C47" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D47" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E47" s="74" t="n">
         <v>41521</v>
@@ -34035,13 +33975,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C48" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D48" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E48" s="74" t="n">
         <v>41688</v>
@@ -34065,13 +34005,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C49" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D49" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E49" s="74" t="n">
         <v>42794</v>
@@ -34095,13 +34035,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C50" s="66" t="n">
         <v>8</v>
       </c>
       <c r="D50" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E50" s="74" t="n">
         <v>43271</v>
@@ -34127,13 +34067,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D51" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E51" s="74" t="n">
         <v>40871</v>
@@ -34159,13 +34099,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C52" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D52" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E52" s="74" t="n">
         <v>41785</v>
@@ -34189,13 +34129,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D53" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E53" s="74" t="n">
         <v>42923</v>
@@ -34219,13 +34159,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C54" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D54" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E54" s="74" t="n">
         <v>43272</v>
@@ -34251,13 +34191,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55" s="66" t="n">
         <v>9</v>
       </c>
       <c r="D55" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E55" s="74" t="n">
         <v>43558</v>
@@ -34283,13 +34223,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C56" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D56" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E56" s="74" t="n">
         <v>40822</v>
@@ -34315,13 +34255,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C57" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D57" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E57" s="74" t="n">
         <v>41542</v>
@@ -34345,13 +34285,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C58" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D58" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E58" s="67" t="n">
         <v>41841</v>
@@ -34375,13 +34315,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C59" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D59" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E59" s="83" t="n">
         <v>42929</v>
@@ -34405,13 +34345,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C60" s="66" t="n">
         <v>10</v>
       </c>
       <c r="D60" s="77" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E60" s="67" t="n">
         <v>43563</v>
@@ -34437,13 +34377,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="84" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C61" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D61" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E61" s="67" t="n">
         <v>41228</v>
@@ -34469,13 +34409,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="84" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C62" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D62" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E62" s="67" t="n">
         <v>41817</v>
@@ -34499,13 +34439,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="84" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D63" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E63" s="67" t="n">
         <v>42173</v>
@@ -34529,13 +34469,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="84" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="66" t="n">
         <v>11</v>
       </c>
       <c r="D64" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E64" s="67" t="n">
         <v>42800</v>
@@ -34559,13 +34499,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="84" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D65" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E65" s="67" t="n">
         <v>40848</v>
@@ -34591,13 +34531,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="84" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C66" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D66" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E66" s="67" t="n">
         <v>40956</v>
@@ -34623,13 +34563,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="84" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C67" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D67" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E67" s="67" t="n">
         <v>41383</v>
@@ -34655,13 +34595,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="84" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C68" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D68" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E68" s="67" t="n">
         <v>41681</v>
@@ -34685,13 +34625,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="84" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C69" s="66" t="n">
         <v>12</v>
       </c>
       <c r="D69" s="66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E69" s="67" t="n">
         <v>42796</v>
@@ -39064,11 +39004,11 @@
   </sheetPr>
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.99"/>
@@ -39082,34 +39022,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>110</v>
-      </c>
       <c r="J1" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39117,13 +39057,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E2" s="74" t="n">
         <v>42865</v>
@@ -39149,13 +39089,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E3" s="74" t="n">
         <v>42557</v>
@@ -39181,13 +39121,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" s="74" t="n">
         <v>42158</v>
@@ -39213,13 +39153,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="74" t="n">
         <v>41729</v>
@@ -39245,13 +39185,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="66" t="n">
         <v>2</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="74" t="n">
         <v>41410</v>
@@ -39277,13 +39217,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="74" t="n">
         <v>42739</v>
@@ -39309,13 +39249,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="74" t="n">
         <v>41676</v>
@@ -39341,13 +39281,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="74" t="n">
         <v>41354</v>
@@ -39373,13 +39313,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="74" t="n">
         <v>41354</v>
@@ -39405,13 +39345,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="66" t="n">
         <v>4</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E11" s="74" t="n">
         <v>41341</v>
@@ -40523,51 +40463,51 @@
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.83"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="82" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="82" t="s">
+      <c r="J1" s="82" t="s">
         <v>112</v>
-      </c>
-      <c r="I1" s="82" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="82" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40575,13 +40515,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="74" t="n">
         <v>42866</v>
@@ -40599,7 +40539,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40607,13 +40547,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="74" t="n">
         <v>42557</v>
@@ -40631,7 +40571,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40639,13 +40579,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="74" t="n">
         <v>42166</v>
@@ -40663,7 +40603,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40671,13 +40611,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="74" t="n">
         <v>41750</v>
@@ -40695,7 +40635,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40703,13 +40643,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="74" t="n">
         <v>41424</v>
@@ -40727,7 +40667,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40735,13 +40675,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="74" t="n">
         <v>42782</v>
@@ -40759,7 +40699,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40767,13 +40707,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="74" t="n">
         <v>41676</v>
@@ -40791,7 +40731,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40799,13 +40739,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="74" t="n">
         <v>41373</v>
@@ -40823,7 +40763,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40831,13 +40771,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="74" t="n">
         <v>41373</v>
@@ -40855,7 +40795,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40863,13 +40803,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="74" t="n">
         <v>41373</v>
@@ -40887,7 +40827,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -41980,7 +41920,7 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.17"/>
@@ -41993,25 +41933,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="81" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G1" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -42019,13 +41959,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="74" t="n">
         <v>42866</v>
@@ -42042,13 +41982,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="74" t="n">
         <v>42557</v>
@@ -42065,13 +42005,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="74" t="n">
         <v>42166</v>
@@ -42088,13 +42028,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="74" t="n">
         <v>41750</v>
@@ -42111,13 +42051,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="74" t="n">
         <v>41424</v>
@@ -42134,13 +42074,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="74" t="n">
         <v>42782</v>
@@ -42157,13 +42097,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="74" t="n">
         <v>41676</v>
@@ -42180,13 +42120,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="74" t="n">
         <v>41373</v>
@@ -42203,13 +42143,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="74" t="n">
         <v>41373</v>
@@ -42226,13 +42166,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="74" t="n">
         <v>41373</v>
@@ -43067,11 +43007,11 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="17.33"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="8" style="0" width="9.13"/>
@@ -43079,25 +43019,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="19" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>84</v>
-      </c>
       <c r="F1" s="81" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G1" s="82" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -43105,13 +43045,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="74" t="n">
         <v>42866</v>
@@ -43128,13 +43068,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" s="74" t="n">
         <v>42557</v>
@@ -43151,13 +43091,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="74" t="n">
         <v>42166</v>
@@ -43174,13 +43114,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="74" t="n">
         <v>41750</v>
@@ -43197,13 +43137,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="74" t="n">
         <v>41424</v>
@@ -43220,13 +43160,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E7" s="74" t="n">
         <v>42782</v>
@@ -43243,13 +43183,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E8" s="74" t="n">
         <v>41676</v>
@@ -43266,13 +43206,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9" s="74" t="n">
         <v>41373</v>
@@ -43289,13 +43229,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E10" s="74" t="n">
         <v>41373</v>
@@ -43312,13 +43252,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E11" s="74" t="n">
         <v>41373</v>
